--- a/Data/comorbidities_data.xlsx
+++ b/Data/comorbidities_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelcosta/Desktop/PBL/PBL-HGO-1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAD07F0-4781-614E-B6EE-E9668EF5D39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22983FEF-7A02-B543-8A15-01534CB332D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16120" xr2:uid="{7342775A-A78B-FE45-A58F-9F322BA138F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
